--- a/casestudy/node-fs-extra-679/results.xlsx
+++ b/casestudy/node-fs-extra-679/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/node-fs-extra-679/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB127F91-30B0-954F-AD9A-EE428D3DEC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF3B5FC-1211-AA4A-AF2B-AF6D60EE0DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7360" yWindow="7400" windowWidth="27240" windowHeight="16440" activeTab="5" xr2:uid="{BA8F4140-1AF3-1848-B3E0-7ADBCED5078A}"/>
+    <workbookView xWindow="7360" yWindow="7400" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{BA8F4140-1AF3-1848-B3E0-7ADBCED5078A}"/>
   </bookViews>
   <sheets>
     <sheet name="bug" sheetId="6" r:id="rId1"/>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2282,8 +2282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45260694-0BBD-5143-B71E-4CB7D6F62B75}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2319,7 +2319,7 @@
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="2"/>
@@ -2379,7 +2379,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -2964,7 +2964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAD8DAD-99CB-094E-8B83-51C6C4237597}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
@@ -3061,7 +3061,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
